--- a/src/main/resources/template/stats_template.xlsx
+++ b/src/main/resources/template/stats_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Code</t>
   </si>
@@ -185,6 +185,15 @@
   </si>
   <si>
     <t>${stat.libSupp}</t>
+  </si>
+  <si>
+    <t>Actives</t>
+  </si>
+  <si>
+    <t>Annulées</t>
+  </si>
+  <si>
+    <t>${stat.nbCandidatureCancel}</t>
   </si>
 </sst>
 </file>
@@ -237,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -503,11 +512,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -555,6 +595,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -858,12 +906,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV4"/>
+  <dimension ref="A1:AW4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:C4"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -871,26 +919,27 @@
     <col min="1" max="1" width="15.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="3" customWidth="1"/>
-    <col min="9" max="13" width="14.28515625" style="3" customWidth="1"/>
-    <col min="14" max="16" width="13.28515625" style="3" customWidth="1"/>
-    <col min="17" max="18" width="15.7109375" style="3" customWidth="1"/>
-    <col min="19" max="24" width="15.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="16.140625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="25.140625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="33" width="13.7109375" style="3" customWidth="1"/>
-    <col min="34" max="34" width="16.28515625" style="3" customWidth="1"/>
-    <col min="35" max="37" width="12.85546875" style="3" customWidth="1"/>
-    <col min="38" max="38" width="17.5703125" style="3" customWidth="1"/>
-    <col min="39" max="39" width="13.5703125" style="3" customWidth="1"/>
-    <col min="40" max="46" width="22" style="3" customWidth="1"/>
-    <col min="47" max="47" width="7" style="3" customWidth="1"/>
-    <col min="48" max="48" width="22" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" style="3" customWidth="1"/>
+    <col min="10" max="14" width="14.28515625" style="3" customWidth="1"/>
+    <col min="15" max="17" width="13.28515625" style="3" customWidth="1"/>
+    <col min="18" max="19" width="15.7109375" style="3" customWidth="1"/>
+    <col min="20" max="25" width="15.5703125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="25.140625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="3" customWidth="1"/>
+    <col min="29" max="34" width="13.7109375" style="3" customWidth="1"/>
+    <col min="35" max="35" width="16.28515625" style="3" customWidth="1"/>
+    <col min="36" max="38" width="12.85546875" style="3" customWidth="1"/>
+    <col min="39" max="39" width="17.5703125" style="3" customWidth="1"/>
+    <col min="40" max="40" width="13.5703125" style="3" customWidth="1"/>
+    <col min="41" max="47" width="22" style="3" customWidth="1"/>
+    <col min="48" max="48" width="7" style="3" customWidth="1"/>
+    <col min="49" max="49" width="22" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>52</v>
       </c>
@@ -898,33 +947,34 @@
       <c r="C1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="24"/>
       <c r="G1" s="24"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="20" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -932,51 +982,56 @@
         <v>1</v>
       </c>
       <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>54</v>
       </c>
@@ -989,58 +1044,61 @@
       <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="AI3" s="4"/>
-      <c r="AM3" s="4"/>
+      <c r="Y3" s="2"/>
+      <c r="AJ3" s="4"/>
+      <c r="AN3" s="4"/>
     </row>
-    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>34</v>
       </c>
@@ -1049,59 +1107,60 @@
       <c r="D4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="N4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="Q4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="R4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="S4" s="16" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/template/stats_template.xlsx
+++ b/src/main/resources/template/stats_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Code</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>${stat.nbCandidatureCancel}</t>
+  </si>
+  <si>
+    <t>${footer.nbCandidatureCancel}</t>
   </si>
 </sst>
 </file>
@@ -573,6 +576,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -588,17 +593,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,7 +914,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -940,39 +943,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="24"/>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="28"/>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="22" t="s">
         <v>29</v>
       </c>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="22" t="s">
         <v>31</v>
       </c>
       <c r="P1" s="24"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="20" t="s">
+      <c r="Q1" s="23"/>
+      <c r="R1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="21"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -981,7 +984,7 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="5" t="s">
         <v>57</v>
       </c>
@@ -1044,7 +1047,7 @@
       <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="17" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -1099,15 +1102,17 @@
       <c r="AN3" s="4"/>
     </row>
     <row r="4" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="F4" s="14" t="s">
         <v>36</v>
       </c>
